--- a/generateConfData/instructions/app conf.xlsx
+++ b/generateConfData/instructions/app conf.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niuxi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niuxi\Documents\Workspaces\codegenerator_ruby\generateConfData\instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1170" windowWidth="7575" windowHeight="6600" tabRatio="549" activeTab="2"/>
+    <workbookView xWindow="9510" yWindow="1170" windowWidth="7575" windowHeight="6600" tabRatio="549" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="physical-dto(Server Side)" sheetId="5" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'add-update(html+js)'!$A$1:$P$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'add-update(html+js)'!$A$1:$P$81</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="558">
   <si>
     <t>getBusinessUnits</t>
   </si>
@@ -1689,6 +1689,24 @@
   </si>
   <si>
     <t>OptSqCtryBgExcpDto</t>
+  </si>
+  <si>
+    <t>tenantCode</t>
+  </si>
+  <si>
+    <t>getTenantCodes</t>
+  </si>
+  <si>
+    <t>tenantCodes</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>'Teant'</t>
+  </si>
+  <si>
+    <t>'tenant'</t>
   </si>
 </sst>
 </file>
@@ -2186,6 +2204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2228,9 +2249,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Header 1" xfId="1"/>
@@ -2239,167 +2257,7 @@
     <cellStyle name="HP Logo" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3104,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E150" sqref="E150"/>
+    <sheetView showGridLines="0" topLeftCell="A121" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M129" sqref="M129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3122,19 +2980,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="102" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="103" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="105"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
@@ -6172,50 +6030,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
       <c r="F1" s="11"/>
-      <c r="G1" s="109" t="s">
+      <c r="G1" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="110" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="112" t="s">
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="113" t="s">
         <v>105</v>
       </c>
-      <c r="O2" s="112"/>
+      <c r="O2" s="113"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
@@ -7501,9 +7359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y168"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8638,7 +8496,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="113" customFormat="1"/>
+    <row r="43" spans="1:21" s="99" customFormat="1"/>
     <row r="44" spans="1:21">
       <c r="A44" s="35" t="s">
         <v>304</v>
@@ -9180,10 +9038,13 @@
       <c r="K63" s="40" t="s">
         <v>414</v>
       </c>
-      <c r="L63" s="42" t="s">
+      <c r="L63" s="40" t="s">
+        <v>556</v>
+      </c>
+      <c r="M63" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="M63" s="42" t="s">
+      <c r="N63" s="42" t="s">
         <v>416</v>
       </c>
     </row>
@@ -9215,9 +9076,12 @@
         <v>419</v>
       </c>
       <c r="L64" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="M64" s="40" t="s">
         <v>418</v>
       </c>
-      <c r="M64" s="40" t="s">
+      <c r="N64" s="40" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9249,9 +9113,12 @@
         <v>419</v>
       </c>
       <c r="L65" s="40" t="s">
+        <v>557</v>
+      </c>
+      <c r="M65" s="40" t="s">
         <v>423</v>
       </c>
-      <c r="M65" s="40" t="s">
+      <c r="N65" s="40" t="s">
         <v>417</v>
       </c>
     </row>
@@ -9286,6 +9153,9 @@
         <v>234</v>
       </c>
       <c r="M66" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="N66" s="33" t="s">
         <v>234</v>
       </c>
     </row>
@@ -9320,6 +9190,9 @@
         <v>483</v>
       </c>
       <c r="M67" s="95" t="s">
+        <v>483</v>
+      </c>
+      <c r="N67" s="95" t="s">
         <v>483</v>
       </c>
     </row>
@@ -11373,7 +11246,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6">
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="42" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11439,11 +11312,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11597,15 +11470,15 @@
         <v>8</v>
       </c>
       <c r="K3" s="58" t="str">
-        <f t="shared" ref="K3:K79" si="0">J3</f>
+        <f t="shared" ref="K3:K81" si="0">J3</f>
         <v>Business Unit</v>
       </c>
       <c r="L3" s="58" t="str">
-        <f t="shared" ref="L3:L79" si="1">"el" &amp; UPPER(MID(H3, 1, 1)) &amp; MID(H3, 2, LEN(H3)-1)</f>
+        <f t="shared" ref="L3:L81" si="1">"el" &amp; UPPER(MID(H3, 1, 1)) &amp; MID(H3, 2, LEN(H3)-1)</f>
         <v>elBunit</v>
       </c>
       <c r="M3" s="58" t="str">
-        <f t="shared" ref="M3:M79" si="2">L3</f>
+        <f t="shared" ref="M3:M81" si="2">L3</f>
         <v>elBunit</v>
       </c>
       <c r="N3" s="58"/>
@@ -12847,10 +12720,10 @@
         <v>304</v>
       </c>
       <c r="B31" s="73" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C31" s="73" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="D31" s="73">
         <v>0</v>
@@ -12865,32 +12738,33 @@
         <v>10</v>
       </c>
       <c r="H31" s="73" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="I31" s="73" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J31" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="K31" s="73" t="s">
-        <v>8</v>
+        <v>127</v>
+      </c>
+      <c r="K31" s="73" t="str">
+        <f>J31</f>
+        <v xml:space="preserve">Region </v>
       </c>
       <c r="L31" s="73" t="str">
         <f>"el" &amp; UPPER(MID(H31, 1, 1)) &amp; MID(H31, 2, LEN(H31)-1)</f>
-        <v>elBusinessUnit</v>
+        <v>elRegion</v>
       </c>
       <c r="M31" s="73" t="str">
         <f>L31</f>
-        <v>elBusinessUnit</v>
+        <v>elRegion</v>
       </c>
       <c r="N31" s="73"/>
       <c r="O31" s="73"/>
       <c r="P31" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q31" s="73" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="76" customFormat="1">
@@ -12898,10 +12772,10 @@
         <v>304</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" s="73" t="s">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="D32" s="73">
         <v>0</v>
@@ -12916,30 +12790,29 @@
         <v>10</v>
       </c>
       <c r="H32" s="73" t="s">
-        <v>5</v>
+        <v>141</v>
       </c>
       <c r="I32" s="73" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="J32" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="73" t="str">
-        <f t="shared" ref="K32" si="9">J32</f>
-        <v>Default Benchmark</v>
+        <v>399</v>
+      </c>
+      <c r="K32" s="73" t="s">
+        <v>8</v>
       </c>
       <c r="L32" s="73" t="str">
-        <f t="shared" ref="L32" si="10">"el" &amp; UPPER(MID(H32, 1, 1)) &amp; MID(H32, 2, LEN(H32)-1)</f>
-        <v>elBenchmark</v>
+        <f>"el" &amp; UPPER(MID(H32, 1, 1)) &amp; MID(H32, 2, LEN(H32)-1)</f>
+        <v>elBusinessUnit</v>
       </c>
       <c r="M32" s="73" t="str">
-        <f t="shared" ref="M32" si="11">L32</f>
-        <v>elBenchmark</v>
+        <f>L32</f>
+        <v>elBusinessUnit</v>
       </c>
       <c r="N32" s="73"/>
       <c r="O32" s="73"/>
       <c r="P32" s="73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="73" t="s">
         <v>365</v>
@@ -12949,45 +12822,51 @@
       <c r="A33" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
-      <c r="E33" s="73"/>
+      <c r="B33" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="73">
+        <v>0</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>22</v>
+      </c>
       <c r="F33" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="74"/>
+        <v>7</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>10</v>
+      </c>
       <c r="H33" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="I33" s="73"/>
+        <v>15</v>
+      </c>
+      <c r="I33" s="73" t="s">
+        <v>28</v>
+      </c>
       <c r="J33" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="K33" s="73" t="str">
-        <f t="shared" ref="K33" si="12">J33</f>
-        <v>Default Adjustment %</v>
+        <v>345</v>
+      </c>
+      <c r="K33" s="73" t="s">
+        <v>16</v>
       </c>
       <c r="L33" s="73" t="str">
-        <f t="shared" ref="L33" si="13">"el" &amp; UPPER(MID(H33, 1, 1)) &amp; MID(H33, 2, LEN(H33)-1)</f>
-        <v>elDefAdjPct</v>
+        <f>"el" &amp; UPPER(MID(H33, 1, 1)) &amp; MID(H33, 2, LEN(H33)-1)</f>
+        <v>elCountry</v>
       </c>
       <c r="M33" s="73" t="str">
-        <f t="shared" ref="M33" si="14">L33</f>
-        <v>elDefAdjPct</v>
-      </c>
-      <c r="N33" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="O33" s="73" t="str">
-        <f>K33 &amp; " is required.;" &amp; K33 &amp; " should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25"</f>
-        <v>Default Adjustment % is required.;Default Adjustment % should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25</v>
-      </c>
+        <f>L33</f>
+        <v>elCountry</v>
+      </c>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
       <c r="P33" s="73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q33" s="73" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="76" customFormat="1">
@@ -12998,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="73" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="D34" s="73">
         <v>0</v>
@@ -13013,25 +12892,25 @@
         <v>10</v>
       </c>
       <c r="H34" s="73" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="I34" s="73" t="s">
-        <v>217</v>
+        <v>121</v>
       </c>
       <c r="J34" s="73" t="s">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="K34" s="73" t="str">
-        <f>J34</f>
-        <v>Auth Benchmark</v>
+        <f t="shared" ref="K34" si="9">J34</f>
+        <v>Default Benchmark</v>
       </c>
       <c r="L34" s="73" t="str">
-        <f>"el" &amp; UPPER(MID(H34, 1, 1)) &amp; MID(H34, 2, LEN(H34)-1)</f>
-        <v>elAuthBenchmark</v>
+        <f t="shared" ref="L34" si="10">"el" &amp; UPPER(MID(H34, 1, 1)) &amp; MID(H34, 2, LEN(H34)-1)</f>
+        <v>elBenchmark</v>
       </c>
       <c r="M34" s="73" t="str">
-        <f>L34</f>
-        <v>elAuthBenchmark</v>
+        <f t="shared" ref="M34" si="11">L34</f>
+        <v>elBenchmark</v>
       </c>
       <c r="N34" s="73"/>
       <c r="O34" s="73"/>
@@ -13046,45 +12925,52 @@
       <c r="A35" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="74"/>
+      <c r="B35" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C35" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="D35" s="73">
+        <v>0</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>10</v>
+      </c>
       <c r="H35" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="73"/>
+        <v>295</v>
+      </c>
+      <c r="I35" s="73" t="s">
+        <v>294</v>
+      </c>
       <c r="J35" s="73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K35" s="73" t="str">
-        <f t="shared" ref="K35" si="15">J35</f>
-        <v>Auth Adjustment %</v>
+        <f>J35</f>
+        <v>Role</v>
       </c>
       <c r="L35" s="73" t="str">
-        <f t="shared" ref="L35" si="16">"el" &amp; UPPER(MID(H35, 1, 1)) &amp; MID(H35, 2, LEN(H35)-1)</f>
-        <v>elAuthAdjPct</v>
+        <f>"el" &amp; UPPER(MID(H35, 1, 1)) &amp; MID(H35, 2, LEN(H35)-1)</f>
+        <v>elRole</v>
       </c>
       <c r="M35" s="73" t="str">
-        <f t="shared" ref="M35" si="17">L35</f>
-        <v>elAuthAdjPct</v>
-      </c>
-      <c r="N35" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="O35" s="73" t="str">
-        <f>K35 &amp; " is required.;" &amp; K35 &amp; " should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25"</f>
-        <v>Auth Adjustment % is required.;Auth Adjustment % should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25</v>
-      </c>
+        <f>L35</f>
+        <v>elRole</v>
+      </c>
+      <c r="N35" s="75"/>
+      <c r="O35" s="73"/>
       <c r="P35" s="73" t="s">
         <v>234</v>
       </c>
       <c r="Q35" s="73" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="76" customFormat="1">
@@ -13094,38 +12980,39 @@
       <c r="B36" s="73"/>
       <c r="C36" s="73"/>
       <c r="D36" s="73"/>
-      <c r="E36" s="73" t="s">
-        <v>92</v>
-      </c>
+      <c r="E36" s="73"/>
       <c r="F36" s="73" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G36" s="74"/>
       <c r="H36" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="I36" s="73" t="s">
-        <v>70</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="I36" s="73"/>
       <c r="J36" s="73" t="s">
-        <v>138</v>
+        <v>318</v>
       </c>
       <c r="K36" s="73" t="str">
-        <f>J36</f>
-        <v>Active</v>
+        <f t="shared" ref="K36" si="12">J36</f>
+        <v>Default Adjustment %</v>
       </c>
       <c r="L36" s="73" t="str">
-        <f>"el" &amp; UPPER(MID(H36, 1, 1)) &amp; MID(H36, 2, LEN(H36)-1)</f>
-        <v>elActiveFlag</v>
+        <f t="shared" ref="L36" si="13">"el" &amp; UPPER(MID(H36, 1, 1)) &amp; MID(H36, 2, LEN(H36)-1)</f>
+        <v>elDefAdjPct</v>
       </c>
       <c r="M36" s="73" t="str">
-        <f>L36</f>
-        <v>elActiveFlag</v>
-      </c>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
+        <f t="shared" ref="M36" si="14">L36</f>
+        <v>elDefAdjPct</v>
+      </c>
+      <c r="N36" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" s="73" t="str">
+        <f>K36 &amp; " is required.;" &amp; K36 &amp; " should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25"</f>
+        <v>Default Adjustment % is required.;Default Adjustment % should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25</v>
+      </c>
       <c r="P36" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q36" s="73" t="s">
         <v>365</v>
@@ -13136,10 +13023,10 @@
         <v>304</v>
       </c>
       <c r="B37" s="73" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="C37" s="73" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="D37" s="73">
         <v>0</v>
@@ -13154,27 +13041,27 @@
         <v>10</v>
       </c>
       <c r="H37" s="73" t="s">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="I37" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="J37" s="73" t="s">
-        <v>127</v>
+        <v>315</v>
+      </c>
+      <c r="J37" s="78" t="s">
+        <v>321</v>
       </c>
       <c r="K37" s="73" t="str">
         <f>J37</f>
-        <v xml:space="preserve">Region </v>
+        <v>Negative Margin Approval Flag</v>
       </c>
       <c r="L37" s="73" t="str">
         <f>"el" &amp; UPPER(MID(H37, 1, 1)) &amp; MID(H37, 2, LEN(H37)-1)</f>
-        <v>elRegion</v>
+        <v>elNegMarginAprvlFg</v>
       </c>
       <c r="M37" s="73" t="str">
         <f>L37</f>
-        <v>elRegion</v>
-      </c>
-      <c r="N37" s="73"/>
+        <v>elNegMarginAprvlFg</v>
+      </c>
+      <c r="N37" s="75"/>
       <c r="O37" s="73"/>
       <c r="P37" s="73" t="s">
         <v>234</v>
@@ -13188,10 +13075,10 @@
         <v>304</v>
       </c>
       <c r="B38" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="C38" s="73" t="s">
+        <v>238</v>
       </c>
       <c r="D38" s="73">
         <v>0</v>
@@ -13206,81 +13093,74 @@
         <v>10</v>
       </c>
       <c r="H38" s="73" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="I38" s="73" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="J38" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="K38" s="73" t="s">
-        <v>16</v>
+        <v>237</v>
+      </c>
+      <c r="K38" s="73" t="str">
+        <f>J38</f>
+        <v>Auth Benchmark</v>
       </c>
       <c r="L38" s="73" t="str">
         <f>"el" &amp; UPPER(MID(H38, 1, 1)) &amp; MID(H38, 2, LEN(H38)-1)</f>
-        <v>elCountry</v>
+        <v>elAuthBenchmark</v>
       </c>
       <c r="M38" s="73" t="str">
         <f>L38</f>
-        <v>elCountry</v>
+        <v>elAuthBenchmark</v>
       </c>
       <c r="N38" s="73"/>
       <c r="O38" s="73"/>
       <c r="P38" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q38" s="73" t="s">
-        <v>97</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="76" customFormat="1">
       <c r="A39" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="B39" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="C39" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="D39" s="73">
-        <v>0</v>
-      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" s="77" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="74" t="s">
-        <v>10</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="74"/>
       <c r="H39" s="73" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="I39" s="73" t="s">
-        <v>294</v>
+        <v>73</v>
       </c>
       <c r="J39" s="73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K39" s="73" t="str">
-        <f t="shared" ref="K39" si="18">J39</f>
-        <v>Role</v>
+        <f>J39</f>
+        <v>Show Expert</v>
       </c>
       <c r="L39" s="73" t="str">
-        <f t="shared" ref="L39" si="19">"el" &amp; UPPER(MID(H39, 1, 1)) &amp; MID(H39, 2, LEN(H39)-1)</f>
-        <v>elRole</v>
+        <f>"el" &amp; UPPER(MID(H39, 1, 1)) &amp; MID(H39, 2, LEN(H39)-1)</f>
+        <v>elShowExpFlag</v>
       </c>
       <c r="M39" s="73" t="str">
-        <f t="shared" ref="M39" si="20">L39</f>
-        <v>elRole</v>
-      </c>
-      <c r="N39" s="75"/>
+        <f>L39</f>
+        <v>elShowExpFlag</v>
+      </c>
+      <c r="N39" s="73"/>
       <c r="O39" s="73"/>
       <c r="P39" s="73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q39" s="73" t="s">
         <v>97</v>
@@ -13290,52 +13170,45 @@
       <c r="A40" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="B40" s="73" t="s">
-        <v>319</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>320</v>
-      </c>
-      <c r="D40" s="73">
-        <v>0</v>
-      </c>
-      <c r="E40" s="73" t="s">
-        <v>22</v>
-      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
       <c r="F40" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="74" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" s="74"/>
       <c r="H40" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="I40" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="J40" s="78" t="s">
-        <v>321</v>
+        <v>72</v>
+      </c>
+      <c r="I40" s="73"/>
+      <c r="J40" s="73" t="s">
+        <v>135</v>
       </c>
       <c r="K40" s="73" t="str">
-        <f>J40</f>
-        <v>Negative Margin Approval Flag</v>
+        <f t="shared" ref="K40" si="15">J40</f>
+        <v>Auth Adjustment %</v>
       </c>
       <c r="L40" s="73" t="str">
-        <f>"el" &amp; UPPER(MID(H40, 1, 1)) &amp; MID(H40, 2, LEN(H40)-1)</f>
-        <v>elNegMarginAprvlFg</v>
+        <f t="shared" ref="L40" si="16">"el" &amp; UPPER(MID(H40, 1, 1)) &amp; MID(H40, 2, LEN(H40)-1)</f>
+        <v>elAuthAdjPct</v>
       </c>
       <c r="M40" s="73" t="str">
-        <f>L40</f>
-        <v>elNegMarginAprvlFg</v>
-      </c>
-      <c r="N40" s="75"/>
-      <c r="O40" s="73"/>
+        <f t="shared" ref="M40" si="17">L40</f>
+        <v>elAuthAdjPct</v>
+      </c>
+      <c r="N40" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="O40" s="73" t="str">
+        <f>K40 &amp; " is required.;" &amp; K40 &amp; " should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25"</f>
+        <v>Auth Adjustment % is required.;Auth Adjustment % should be percentage with maximum 2 decimal places, value should NOT larger than 100, like 10.25</v>
+      </c>
       <c r="P40" s="73" t="s">
         <v>234</v>
       </c>
       <c r="Q40" s="73" t="s">
-        <v>97</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="76" customFormat="1">
@@ -13353,25 +13226,25 @@
       </c>
       <c r="G41" s="74"/>
       <c r="H41" s="73" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I41" s="73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J41" s="73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K41" s="73" t="str">
         <f>J41</f>
-        <v>Show Expert</v>
+        <v>Show Typical</v>
       </c>
       <c r="L41" s="73" t="str">
         <f>"el" &amp; UPPER(MID(H41, 1, 1)) &amp; MID(H41, 2, LEN(H41)-1)</f>
-        <v>elShowExpFlag</v>
+        <v>elShowTypeFlag</v>
       </c>
       <c r="M41" s="73" t="str">
         <f>L41</f>
-        <v>elShowExpFlag</v>
+        <v>elShowTypeFlag</v>
       </c>
       <c r="N41" s="73"/>
       <c r="O41" s="73"/>
@@ -13397,25 +13270,25 @@
       </c>
       <c r="G42" s="74"/>
       <c r="H42" s="73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I42" s="73" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="J42" s="73" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K42" s="73" t="str">
         <f>J42</f>
-        <v>Show Typical</v>
+        <v>Active</v>
       </c>
       <c r="L42" s="73" t="str">
         <f>"el" &amp; UPPER(MID(H42, 1, 1)) &amp; MID(H42, 2, LEN(H42)-1)</f>
-        <v>elShowTypeFlag</v>
+        <v>elActiveFlag</v>
       </c>
       <c r="M42" s="73" t="str">
         <f>L42</f>
-        <v>elShowTypeFlag</v>
+        <v>elActiveFlag</v>
       </c>
       <c r="N42" s="73"/>
       <c r="O42" s="73"/>
@@ -13423,7 +13296,7 @@
         <v>235</v>
       </c>
       <c r="Q42" s="73" t="s">
-        <v>97</v>
+        <v>365</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="76" customFormat="1">
@@ -13535,15 +13408,15 @@
         <v>137</v>
       </c>
       <c r="K45" s="80" t="str">
-        <f t="shared" ref="K45:K46" si="21">J45</f>
+        <f t="shared" ref="K45:K46" si="18">J45</f>
         <v>Role</v>
       </c>
       <c r="L45" s="80" t="str">
-        <f t="shared" ref="L45:L46" si="22">"el" &amp; UPPER(MID(H45, 1, 1)) &amp; MID(H45, 2, LEN(H45)-1)</f>
+        <f t="shared" ref="L45:L46" si="19">"el" &amp; UPPER(MID(H45, 1, 1)) &amp; MID(H45, 2, LEN(H45)-1)</f>
         <v>elRoleDesc</v>
       </c>
       <c r="M45" s="80" t="str">
-        <f t="shared" ref="M45:M46" si="23">L45</f>
+        <f t="shared" ref="M45:M46" si="20">L45</f>
         <v>elRoleDesc</v>
       </c>
       <c r="N45" s="82" t="s">
@@ -13578,15 +13451,15 @@
         <v>253</v>
       </c>
       <c r="K46" s="80" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>Note</v>
       </c>
       <c r="L46" s="80" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>elNote</v>
       </c>
       <c r="M46" s="80" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v>elNote</v>
       </c>
       <c r="N46" s="82" t="s">
@@ -13630,11 +13503,11 @@
         <v>28</v>
       </c>
       <c r="J47" s="58" t="s">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="K47" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>Country</v>
+        <v>Country *</v>
       </c>
       <c r="L47" s="58" t="str">
         <f t="shared" si="1"/>
@@ -14003,15 +13876,15 @@
         <v>358</v>
       </c>
       <c r="K55" s="83" t="str">
-        <f t="shared" ref="K55" si="24">J55</f>
+        <f t="shared" ref="K55" si="21">J55</f>
         <v>MCC</v>
       </c>
       <c r="L55" s="83" t="str">
-        <f t="shared" ref="L55:L56" si="25">"el" &amp; UPPER(MID(H55, 1, 1)) &amp; MID(H55, 2, LEN(H55)-1)</f>
+        <f t="shared" ref="L55:L56" si="22">"el" &amp; UPPER(MID(H55, 1, 1)) &amp; MID(H55, 2, LEN(H55)-1)</f>
         <v>elMcCharge</v>
       </c>
       <c r="M55" s="83" t="str">
-        <f t="shared" ref="M55:M56" si="26">L55</f>
+        <f t="shared" ref="M55:M56" si="23">L55</f>
         <v>elMcCharge</v>
       </c>
       <c r="N55" s="85"/>
@@ -14041,15 +13914,15 @@
         <v>253</v>
       </c>
       <c r="K56" s="83" t="str">
-        <f t="shared" ref="K56" si="27">J56</f>
+        <f t="shared" ref="K56" si="24">J56</f>
         <v>Note</v>
       </c>
       <c r="L56" s="83" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>elNote</v>
       </c>
       <c r="M56" s="83" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>elNote</v>
       </c>
       <c r="N56" s="85" t="s">
@@ -14480,93 +14353,94 @@
       <c r="A66" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B66" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" s="62">
-        <v>0</v>
-      </c>
-      <c r="E66" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
       <c r="F66" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G66" s="63" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G66" s="63"/>
       <c r="H66" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="I66" s="62" t="s">
-        <v>40</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="I66" s="62"/>
       <c r="J66" s="62" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="K66" s="62" t="str">
         <f>J66</f>
-        <v>Business Unit</v>
+        <v>T1 ($)</v>
       </c>
       <c r="L66" s="62" t="str">
         <f>"el" &amp; UPPER(MID(H66, 1, 1)) &amp; MID(H66, 2, LEN(H66)-1)</f>
-        <v>elBusinessUnit</v>
+        <v>elT1</v>
       </c>
       <c r="M66" s="62" t="str">
         <f>L66</f>
-        <v>elBusinessUnit</v>
-      </c>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
+        <v>elT1</v>
+      </c>
+      <c r="N66" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="O66" s="62" t="str">
+        <f>K66 &amp; " is required.;" &amp; K66 &amp; " should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of "&amp;K66&amp;" is 18."</f>
+        <v>T1 ($) is required.;T1 ($) should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of T1 ($) is 18.</v>
+      </c>
       <c r="P66" s="62" t="s">
         <v>234</v>
       </c>
       <c r="Q66" s="62" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
+      <c r="B67" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="62">
+        <v>0</v>
+      </c>
+      <c r="E67" s="62" t="s">
+        <v>22</v>
+      </c>
       <c r="F67" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="63"/>
+        <v>7</v>
+      </c>
+      <c r="G67" s="63" t="s">
+        <v>10</v>
+      </c>
       <c r="H67" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" s="62"/>
+        <v>141</v>
+      </c>
+      <c r="I67" s="62" t="s">
+        <v>40</v>
+      </c>
       <c r="J67" s="62" t="s">
-        <v>231</v>
-      </c>
-      <c r="K67" s="62" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="K67" s="62" t="str">
+        <f>J67</f>
+        <v>Business Unit</v>
       </c>
       <c r="L67" s="62" t="str">
         <f>"el" &amp; UPPER(MID(H67, 1, 1)) &amp; MID(H67, 2, LEN(H67)-1)</f>
-        <v>elAmid2</v>
+        <v>elBusinessUnit</v>
       </c>
       <c r="M67" s="62" t="str">
         <f>L67</f>
-        <v>elAmid2</v>
-      </c>
-      <c r="N67" s="64" t="s">
-        <v>257</v>
-      </c>
-      <c r="O67" s="62" t="str">
-        <f>"Please input a valid AMID2 or an asterisk.;Max length of " &amp; K67  &amp; " is 15."</f>
-        <v>Please input a valid AMID2 or an asterisk.;Max length of AMID2 is 15.</v>
-      </c>
+        <v>elBusinessUnit</v>
+      </c>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
       <c r="P67" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q67" s="62" t="s">
         <v>365</v>
@@ -14576,52 +14450,45 @@
       <c r="A68" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="62" t="s">
-        <v>243</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>244</v>
-      </c>
-      <c r="D68" s="62">
-        <v>0</v>
-      </c>
-      <c r="E68" s="62" t="s">
-        <v>22</v>
-      </c>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
       <c r="F68" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="63" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" s="63"/>
       <c r="H68" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="62" t="s">
-        <v>90</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="I68" s="62"/>
       <c r="J68" s="62" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="K68" s="62" t="str">
         <f>J68</f>
-        <v>Unverified Customer Pricing Method</v>
+        <v>T2 ($)</v>
       </c>
       <c r="L68" s="62" t="str">
         <f>"el" &amp; UPPER(MID(H68, 1, 1)) &amp; MID(H68, 2, LEN(H68)-1)</f>
-        <v>elUnverCustPrcMthd</v>
+        <v>elT2</v>
       </c>
       <c r="M68" s="62" t="str">
         <f>L68</f>
-        <v>elUnverCustPrcMthd</v>
-      </c>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
+        <v>elT2</v>
+      </c>
+      <c r="N68" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="O68" s="62" t="str">
+        <f>K68 &amp; " is required.;" &amp; K68 &amp; " should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of "&amp;K68&amp;" is 18."</f>
+        <v>T2 ($) is required.;T2 ($) should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of T2 ($) is 18.</v>
+      </c>
       <c r="P68" s="62" t="s">
         <v>234</v>
       </c>
       <c r="Q68" s="62" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -14633,18 +14500,37 @@
       <c r="D69" s="62"/>
       <c r="E69" s="62"/>
       <c r="F69" s="62" t="s">
-        <v>366</v>
+        <v>18</v>
       </c>
       <c r="G69" s="63"/>
-      <c r="H69" s="62"/>
+      <c r="H69" s="62" t="s">
+        <v>47</v>
+      </c>
       <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
+      <c r="J69" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="K69" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="L69" s="62" t="str">
+        <f>"el" &amp; UPPER(MID(H69, 1, 1)) &amp; MID(H69, 2, LEN(H69)-1)</f>
+        <v>elAmid2</v>
+      </c>
+      <c r="M69" s="62" t="str">
+        <f>L69</f>
+        <v>elAmid2</v>
+      </c>
+      <c r="N69" s="64" t="s">
+        <v>257</v>
+      </c>
+      <c r="O69" s="62" t="str">
+        <f>"Please input a valid AMID2 or an asterisk.;Max length of " &amp; K69  &amp; " is 15."</f>
+        <v>Please input a valid AMID2 or an asterisk.;Max length of AMID2 is 15.</v>
+      </c>
+      <c r="P69" s="62" t="s">
+        <v>235</v>
+      </c>
       <c r="Q69" s="62" t="s">
         <v>365</v>
       </c>
@@ -14662,30 +14548,30 @@
       </c>
       <c r="G70" s="63"/>
       <c r="H70" s="62" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I70" s="62"/>
       <c r="J70" s="62" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K70" s="62" t="str">
         <f>J70</f>
-        <v>T1 ($)</v>
+        <v>T3 ($)</v>
       </c>
       <c r="L70" s="62" t="str">
         <f>"el" &amp; UPPER(MID(H70, 1, 1)) &amp; MID(H70, 2, LEN(H70)-1)</f>
-        <v>elT1</v>
+        <v>elT3</v>
       </c>
       <c r="M70" s="62" t="str">
         <f>L70</f>
-        <v>elT1</v>
+        <v>elT3</v>
       </c>
       <c r="N70" s="64" t="s">
         <v>274</v>
       </c>
       <c r="O70" s="62" t="str">
         <f>K70 &amp; " is required.;" &amp; K70 &amp; " should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of "&amp;K70&amp;" is 18."</f>
-        <v>T1 ($) is required.;T1 ($) should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of T1 ($) is 18.</v>
+        <v>T3 ($) is required.;T3 ($) should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of T3 ($) is 18.</v>
       </c>
       <c r="P70" s="62" t="s">
         <v>234</v>
@@ -14698,45 +14584,52 @@
       <c r="A71" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
+      <c r="B71" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C71" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="62">
+        <v>0</v>
+      </c>
+      <c r="E71" s="62" t="s">
+        <v>22</v>
+      </c>
       <c r="F71" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" s="63"/>
+        <v>7</v>
+      </c>
+      <c r="G71" s="63" t="s">
+        <v>10</v>
+      </c>
       <c r="H71" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="I71" s="62"/>
+        <v>90</v>
+      </c>
+      <c r="I71" s="62" t="s">
+        <v>90</v>
+      </c>
       <c r="J71" s="62" t="s">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c r="K71" s="62" t="str">
         <f>J71</f>
-        <v>T2 ($)</v>
+        <v>Unverified Customer Pricing Method</v>
       </c>
       <c r="L71" s="62" t="str">
         <f>"el" &amp; UPPER(MID(H71, 1, 1)) &amp; MID(H71, 2, LEN(H71)-1)</f>
-        <v>elT2</v>
+        <v>elUnverCustPrcMthd</v>
       </c>
       <c r="M71" s="62" t="str">
         <f>L71</f>
-        <v>elT2</v>
-      </c>
-      <c r="N71" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="O71" s="62" t="str">
-        <f>K71 &amp; " is required.;" &amp; K71 &amp; " should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of "&amp;K71&amp;" is 18."</f>
-        <v>T2 ($) is required.;T2 ($) should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of T2 ($) is 18.</v>
-      </c>
+        <v>elUnverCustPrcMthd</v>
+      </c>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
       <c r="P71" s="62" t="s">
         <v>234</v>
       </c>
       <c r="Q71" s="62" t="s">
-        <v>97</v>
+        <v>365</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -14751,34 +14644,34 @@
         <v>18</v>
       </c>
       <c r="G72" s="63"/>
-      <c r="H72" s="62" t="s">
-        <v>89</v>
+      <c r="H72" s="77" t="s">
+        <v>343</v>
       </c>
       <c r="I72" s="62"/>
       <c r="J72" s="62" t="s">
-        <v>230</v>
+        <v>344</v>
       </c>
       <c r="K72" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v>T3 ($)</v>
+        <f>J72</f>
+        <v>Hold Initial Price ($)</v>
       </c>
       <c r="L72" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>elT3</v>
+        <f>"el" &amp; UPPER(MID(H72, 1, 1)) &amp; MID(H72, 2, LEN(H72)-1)</f>
+        <v>elHoldIntlPrc</v>
       </c>
       <c r="M72" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>elT3</v>
-      </c>
-      <c r="N72" s="64" t="s">
-        <v>274</v>
-      </c>
-      <c r="O72" s="62" t="str">
-        <f>K72 &amp; " is required.;" &amp; K72 &amp; " should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of "&amp;K72&amp;" is 18."</f>
-        <v>T3 ($) is required.;T3 ($) should be positive numeric, with maximum 2 decimal places, like 10.25;Max length of T3 ($) is 18.</v>
+        <f>L72</f>
+        <v>elHoldIntlPrc</v>
+      </c>
+      <c r="N72" s="91" t="s">
+        <v>398</v>
+      </c>
+      <c r="O72" s="77" t="str">
+        <f>K72&amp;" should be empty or positive numeric with maximum 18 integer and 2 decimal places, like 10.25."</f>
+        <v>Hold Initial Price ($) should be empty or positive numeric with maximum 18 integer and 2 decimal places, like 10.25.</v>
       </c>
       <c r="P72" s="62" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q72" s="62" t="s">
         <v>97</v>
@@ -14793,40 +14686,20 @@
       <c r="D73" s="62"/>
       <c r="E73" s="62"/>
       <c r="F73" s="62" t="s">
-        <v>18</v>
+        <v>366</v>
       </c>
       <c r="G73" s="63"/>
-      <c r="H73" s="77" t="s">
-        <v>343</v>
-      </c>
+      <c r="H73" s="62"/>
       <c r="I73" s="62"/>
-      <c r="J73" s="62" t="s">
-        <v>344</v>
-      </c>
-      <c r="K73" s="62" t="str">
-        <f t="shared" si="0"/>
-        <v>Hold Initial Price ($)</v>
-      </c>
-      <c r="L73" s="62" t="str">
-        <f t="shared" si="1"/>
-        <v>elHoldIntlPrc</v>
-      </c>
-      <c r="M73" s="62" t="str">
-        <f t="shared" si="2"/>
-        <v>elHoldIntlPrc</v>
-      </c>
-      <c r="N73" s="91" t="s">
-        <v>398</v>
-      </c>
-      <c r="O73" s="77" t="str">
-        <f>K73&amp;" should be empty or positive numeric with maximum 18 integer and 2 decimal places, like 10.25."</f>
-        <v>Hold Initial Price ($) should be empty or positive numeric with maximum 18 integer and 2 decimal places, like 10.25.</v>
-      </c>
-      <c r="P73" s="62" t="s">
-        <v>235</v>
-      </c>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="62"/>
       <c r="Q73" s="62" t="s">
-        <v>97</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -14849,15 +14722,15 @@
         <v>352</v>
       </c>
       <c r="K74" s="62" t="str">
-        <f t="shared" ref="K74" si="28">J74</f>
+        <f t="shared" ref="K74" si="25">J74</f>
         <v>PPS Hold Initial Price ($)</v>
       </c>
       <c r="L74" s="62" t="str">
-        <f t="shared" ref="L74" si="29">"el" &amp; UPPER(MID(H74, 1, 1)) &amp; MID(H74, 2, LEN(H74)-1)</f>
+        <f t="shared" ref="L74" si="26">"el" &amp; UPPER(MID(H74, 1, 1)) &amp; MID(H74, 2, LEN(H74)-1)</f>
         <v>elPpsHoldIntlPrc</v>
       </c>
       <c r="M74" s="62" t="str">
-        <f t="shared" ref="M74" si="30">L74</f>
+        <f t="shared" ref="M74" si="27">L74</f>
         <v>elPpsHoldIntlPrc</v>
       </c>
       <c r="N74" s="91" t="s">
@@ -14923,40 +14796,47 @@
       <c r="A76" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
+      <c r="B76" s="57" t="s">
+        <v>553</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>554</v>
+      </c>
+      <c r="D76" s="57">
+        <v>0</v>
+      </c>
+      <c r="E76" s="57" t="s">
+        <v>22</v>
+      </c>
       <c r="F76" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" s="57"/>
+        <v>7</v>
+      </c>
+      <c r="G76" s="59" t="s">
+        <v>10</v>
+      </c>
       <c r="H76" s="57" t="s">
-        <v>110</v>
-      </c>
-      <c r="I76" s="57"/>
+        <v>552</v>
+      </c>
+      <c r="I76" s="57" t="s">
+        <v>552</v>
+      </c>
       <c r="J76" s="57" t="s">
-        <v>109</v>
+        <v>555</v>
       </c>
       <c r="K76" s="57" t="str">
-        <f t="shared" si="0"/>
-        <v>Email</v>
+        <f>J76</f>
+        <v>Tenant</v>
       </c>
       <c r="L76" s="57" t="str">
-        <f t="shared" si="1"/>
-        <v>elEmail</v>
+        <f>"el" &amp; UPPER(MID(H76, 1, 1)) &amp; MID(H76, 2, LEN(H76)-1)</f>
+        <v>elTenantCode</v>
       </c>
       <c r="M76" s="57" t="str">
-        <f t="shared" si="2"/>
-        <v>elEmail</v>
-      </c>
-      <c r="N76" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="O76" s="58" t="str">
-        <f>K76 &amp; " is required.;Email format is like john.doe@hp.com"</f>
-        <v>Email is required.;Email format is like john.doe@hp.com</v>
-      </c>
+        <f>L76</f>
+        <v>elTenantCode</v>
+      </c>
+      <c r="N76" s="60"/>
+      <c r="O76" s="58"/>
       <c r="P76" s="57" t="s">
         <v>234</v>
       </c>
@@ -14975,30 +14855,30 @@
       </c>
       <c r="G77" s="57"/>
       <c r="H77" s="57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I77" s="57"/>
       <c r="J77" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K77" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>First Name</v>
+        <v>Email</v>
       </c>
       <c r="L77" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>elFirstName</v>
+        <v>elEmail</v>
       </c>
       <c r="M77" s="57" t="str">
         <f t="shared" si="2"/>
-        <v>elFirstName</v>
+        <v>elEmail</v>
       </c>
       <c r="N77" s="60" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="O77" s="58" t="str">
-        <f>K77 &amp; " is required."</f>
-        <v>First Name is required.</v>
+        <f>K77 &amp; " is required.;Email format is like john.doe@hp.com"</f>
+        <v>Email is required.;Email format is like john.doe@hp.com</v>
       </c>
       <c r="P77" s="57" t="s">
         <v>234</v>
@@ -15018,30 +14898,30 @@
       </c>
       <c r="G78" s="57"/>
       <c r="H78" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I78" s="57"/>
       <c r="J78" s="57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K78" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>Last Name</v>
+        <v>First Name</v>
       </c>
       <c r="L78" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>elLastName</v>
+        <v>elFirstName</v>
       </c>
       <c r="M78" s="57" t="str">
         <f t="shared" si="2"/>
-        <v>elLastName</v>
+        <v>elFirstName</v>
       </c>
       <c r="N78" s="60" t="s">
         <v>240</v>
       </c>
       <c r="O78" s="58" t="str">
         <f>K78 &amp; " is required."</f>
-        <v>Last Name is required.</v>
+        <v>First Name is required.</v>
       </c>
       <c r="P78" s="57" t="s">
         <v>234</v>
@@ -15055,151 +14935,146 @@
       <c r="B79" s="57"/>
       <c r="C79" s="57"/>
       <c r="D79" s="57"/>
-      <c r="E79" s="57" t="s">
-        <v>92</v>
-      </c>
+      <c r="E79" s="57"/>
       <c r="F79" s="57" t="s">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="G79" s="57"/>
       <c r="H79" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="I79" s="57" t="s">
-        <v>115</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="I79" s="57"/>
       <c r="J79" s="57" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="K79" s="57" t="str">
         <f t="shared" si="0"/>
-        <v>Active</v>
+        <v>Last Name</v>
       </c>
       <c r="L79" s="57" t="str">
         <f t="shared" si="1"/>
-        <v>elStatusFlag</v>
+        <v>elLastName</v>
       </c>
       <c r="M79" s="57" t="str">
         <f t="shared" si="2"/>
+        <v>elLastName</v>
+      </c>
+      <c r="N79" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="O79" s="58" t="str">
+        <f>K79 &amp; " is required."</f>
+        <v>Last Name is required.</v>
+      </c>
+      <c r="P79" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q79" s="57"/>
+    </row>
+    <row r="80" spans="1:17" s="86" customFormat="1">
+      <c r="A80" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C80" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="D80" s="57">
+        <v>0</v>
+      </c>
+      <c r="E80" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="I80" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="J80" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="K80" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>Role</v>
+      </c>
+      <c r="L80" s="57" t="str">
+        <f t="shared" si="1"/>
+        <v>elRole</v>
+      </c>
+      <c r="M80" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>elRole</v>
+      </c>
+      <c r="N80" s="60"/>
+      <c r="O80" s="58"/>
+      <c r="P80" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q80" s="57"/>
+    </row>
+    <row r="81" spans="1:17" s="86" customFormat="1">
+      <c r="A81" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I81" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="J81" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="K81" s="57" t="str">
+        <f t="shared" si="0"/>
+        <v>Active</v>
+      </c>
+      <c r="L81" s="57" t="str">
+        <f t="shared" si="1"/>
         <v>elStatusFlag</v>
       </c>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57" t="str">
-        <f t="shared" ref="O79" si="31">IF(N79="Y", J79 &amp; " is required.", "")</f>
+      <c r="M81" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>elStatusFlag</v>
+      </c>
+      <c r="N81" s="57"/>
+      <c r="O81" s="57" t="str">
+        <f t="shared" ref="O81" si="28">IF(N81="Y", J81 &amp; " is required.", "")</f>
         <v/>
       </c>
-      <c r="P79" s="57" t="s">
+      <c r="P81" s="57" t="s">
         <v>235</v>
       </c>
-      <c r="Q79" s="57"/>
-    </row>
-    <row r="80" spans="1:17">
-      <c r="A80" s="72" t="s">
-        <v>509</v>
-      </c>
-      <c r="B80" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="C80" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="D80" s="73">
-        <v>0</v>
-      </c>
-      <c r="E80" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F80" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G80" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="H80" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="I80" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="J80" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="K80" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="L80" s="73" t="str">
-        <f t="shared" ref="L80:L81" si="32">"el" &amp; UPPER(MID(H80, 1, 1)) &amp; MID(H80, 2, LEN(H80)-1)</f>
-        <v>elRouteToMarket</v>
-      </c>
-      <c r="M80" s="73" t="str">
-        <f t="shared" ref="M80:M81" si="33">L80</f>
-        <v>elRouteToMarket</v>
-      </c>
-      <c r="N80" s="75"/>
-      <c r="O80" s="73"/>
-      <c r="P80" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q80" s="73"/>
-    </row>
-    <row r="81" spans="1:17">
-      <c r="A81" s="72" t="s">
-        <v>509</v>
-      </c>
-      <c r="B81" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D81" s="73">
-        <v>0</v>
-      </c>
-      <c r="E81" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F81" s="73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G81" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="I81" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="J81" s="73" t="s">
-        <v>127</v>
-      </c>
-      <c r="K81" s="73" t="s">
-        <v>128</v>
-      </c>
-      <c r="L81" s="73" t="str">
-        <f t="shared" si="32"/>
-        <v>elRegion</v>
-      </c>
-      <c r="M81" s="73" t="str">
-        <f t="shared" si="33"/>
-        <v>elRegion</v>
-      </c>
-      <c r="N81" s="75"/>
-      <c r="O81" s="73"/>
-      <c r="P81" s="73" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q81" s="73"/>
+      <c r="Q81" s="57"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="72" t="s">
         <v>509</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="C82" s="73" t="s">
-        <v>13</v>
+        <v>270</v>
       </c>
       <c r="D82" s="73">
         <v>0</v>
@@ -15214,29 +15089,29 @@
         <v>10</v>
       </c>
       <c r="H82" s="73" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="I82" s="73" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="J82" s="73" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="K82" s="73" t="s">
-        <v>94</v>
+        <v>268</v>
       </c>
       <c r="L82" s="73" t="str">
-        <f>"el" &amp; UPPER(MID(H82, 1, 1)) &amp; MID(H82, 2, LEN(H82)-1)</f>
-        <v>elCountry</v>
+        <f t="shared" ref="L82:L83" si="29">"el" &amp; UPPER(MID(H82, 1, 1)) &amp; MID(H82, 2, LEN(H82)-1)</f>
+        <v>elRouteToMarket</v>
       </c>
       <c r="M82" s="73" t="str">
-        <f>L82</f>
-        <v>elCountry</v>
-      </c>
-      <c r="N82" s="73"/>
+        <f t="shared" ref="M82:M83" si="30">L82</f>
+        <v>elRouteToMarket</v>
+      </c>
+      <c r="N82" s="75"/>
       <c r="O82" s="73"/>
       <c r="P82" s="73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="Q82" s="73"/>
     </row>
@@ -15245,10 +15120,10 @@
         <v>509</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>518</v>
+        <v>125</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>520</v>
+        <v>126</v>
       </c>
       <c r="D83" s="73">
         <v>0</v>
@@ -15263,24 +15138,24 @@
         <v>10</v>
       </c>
       <c r="H83" s="73" t="s">
-        <v>516</v>
+        <v>76</v>
       </c>
       <c r="I83" s="73" t="s">
-        <v>504</v>
+        <v>76</v>
       </c>
       <c r="J83" s="73" t="s">
-        <v>513</v>
+        <v>127</v>
       </c>
       <c r="K83" s="73" t="s">
-        <v>513</v>
+        <v>128</v>
       </c>
       <c r="L83" s="73" t="str">
-        <f t="shared" ref="L83:L84" si="34">"el" &amp; UPPER(MID(H83, 1, 1)) &amp; MID(H83, 2, LEN(H83)-1)</f>
-        <v>elBusinessGroup</v>
+        <f t="shared" si="29"/>
+        <v>elRegion</v>
       </c>
       <c r="M83" s="73" t="str">
-        <f t="shared" ref="M83:M84" si="35">L83</f>
-        <v>elBusinessGroup</v>
+        <f t="shared" si="30"/>
+        <v>elRegion</v>
       </c>
       <c r="N83" s="75"/>
       <c r="O83" s="73"/>
@@ -15294,10 +15169,10 @@
         <v>509</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>519</v>
+        <v>11</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>521</v>
+        <v>13</v>
       </c>
       <c r="D84" s="73">
         <v>0</v>
@@ -15312,26 +15187,26 @@
         <v>10</v>
       </c>
       <c r="H84" s="73" t="s">
-        <v>517</v>
+        <v>15</v>
       </c>
       <c r="I84" s="73" t="s">
-        <v>506</v>
+        <v>28</v>
       </c>
       <c r="J84" s="73" t="s">
-        <v>514</v>
+        <v>345</v>
       </c>
       <c r="K84" s="73" t="s">
-        <v>515</v>
+        <v>94</v>
       </c>
       <c r="L84" s="73" t="str">
-        <f t="shared" si="34"/>
-        <v>elBusinessModel</v>
+        <f>"el" &amp; UPPER(MID(H84, 1, 1)) &amp; MID(H84, 2, LEN(H84)-1)</f>
+        <v>elCountry</v>
       </c>
       <c r="M84" s="73" t="str">
-        <f t="shared" si="35"/>
-        <v>elBusinessModel</v>
-      </c>
-      <c r="N84" s="75"/>
+        <f>L84</f>
+        <v>elCountry</v>
+      </c>
+      <c r="N84" s="73"/>
       <c r="O84" s="73"/>
       <c r="P84" s="73" t="s">
         <v>235</v>
@@ -15342,139 +15217,144 @@
       <c r="A85" s="72" t="s">
         <v>509</v>
       </c>
-      <c r="B85" s="73"/>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
+      <c r="B85" s="73" t="s">
+        <v>518</v>
+      </c>
+      <c r="C85" s="73" t="s">
+        <v>520</v>
+      </c>
+      <c r="D85" s="73">
+        <v>0</v>
+      </c>
+      <c r="E85" s="73" t="s">
+        <v>22</v>
+      </c>
       <c r="F85" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H85" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="I85" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="J85" s="73" t="s">
+        <v>513</v>
+      </c>
+      <c r="K85" s="73" t="s">
+        <v>513</v>
+      </c>
+      <c r="L85" s="73" t="str">
+        <f t="shared" ref="L85:L86" si="31">"el" &amp; UPPER(MID(H85, 1, 1)) &amp; MID(H85, 2, LEN(H85)-1)</f>
+        <v>elBusinessGroup</v>
+      </c>
+      <c r="M85" s="73" t="str">
+        <f t="shared" ref="M85:M86" si="32">L85</f>
+        <v>elBusinessGroup</v>
+      </c>
+      <c r="N85" s="75"/>
+      <c r="O85" s="73"/>
+      <c r="P85" s="73" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q85" s="73"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="72" t="s">
+        <v>509</v>
+      </c>
+      <c r="B86" s="73" t="s">
+        <v>519</v>
+      </c>
+      <c r="C86" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="D86" s="73">
+        <v>0</v>
+      </c>
+      <c r="E86" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="H86" s="73" t="s">
+        <v>517</v>
+      </c>
+      <c r="I86" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J86" s="73" t="s">
+        <v>514</v>
+      </c>
+      <c r="K86" s="73" t="s">
+        <v>515</v>
+      </c>
+      <c r="L86" s="73" t="str">
+        <f t="shared" si="31"/>
+        <v>elBusinessModel</v>
+      </c>
+      <c r="M86" s="73" t="str">
+        <f t="shared" si="32"/>
+        <v>elBusinessModel</v>
+      </c>
+      <c r="N86" s="75"/>
+      <c r="O86" s="73"/>
+      <c r="P86" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q86" s="73"/>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="72" t="s">
+        <v>509</v>
+      </c>
+      <c r="B87" s="73"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="73" t="s">
         <v>255</v>
       </c>
-      <c r="G85" s="74"/>
-      <c r="H85" s="73" t="s">
+      <c r="G87" s="74"/>
+      <c r="H87" s="73" t="s">
         <v>252</v>
       </c>
-      <c r="I85" s="73"/>
-      <c r="J85" s="73" t="s">
+      <c r="I87" s="73"/>
+      <c r="J87" s="73" t="s">
         <v>253</v>
       </c>
-      <c r="K85" s="73" t="str">
-        <f t="shared" ref="K85" si="36">J85</f>
+      <c r="K87" s="73" t="str">
+        <f t="shared" ref="K87" si="33">J87</f>
         <v>Note</v>
       </c>
-      <c r="L85" s="73" t="str">
-        <f t="shared" ref="L85:L89" si="37">"el" &amp; UPPER(MID(H85, 1, 1)) &amp; MID(H85, 2, LEN(H85)-1)</f>
+      <c r="L87" s="73" t="str">
+        <f t="shared" ref="L87:L91" si="34">"el" &amp; UPPER(MID(H87, 1, 1)) &amp; MID(H87, 2, LEN(H87)-1)</f>
         <v>elNote</v>
       </c>
-      <c r="M85" s="73" t="str">
-        <f t="shared" ref="M85:M89" si="38">L85</f>
+      <c r="M87" s="73" t="str">
+        <f t="shared" ref="M87:M91" si="35">L87</f>
         <v>elNote</v>
       </c>
-      <c r="N85" s="75" t="s">
+      <c r="N87" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="O85" s="73" t="str">
-        <f>"Max length of " &amp; K85 &amp; " is 256."</f>
+      <c r="O87" s="73" t="str">
+        <f>"Max length of " &amp; K87 &amp; " is 256."</f>
         <v>Max length of Note is 256.</v>
       </c>
-      <c r="P85" s="73" t="s">
+      <c r="P87" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="Q85" s="73"/>
-    </row>
-    <row r="86" spans="1:17" s="76" customFormat="1">
-      <c r="A86" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
-      <c r="F86" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" s="81"/>
-      <c r="H86" s="80" t="s">
-        <v>532</v>
-      </c>
-      <c r="I86" s="80"/>
-      <c r="J86" s="80" t="s">
-        <v>537</v>
-      </c>
-      <c r="K86" s="80" t="str">
-        <f>J86</f>
-        <v>Customer</v>
-      </c>
-      <c r="L86" s="80" t="str">
-        <f>"el" &amp; UPPER(MID(H86, 1, 1)) &amp; MID(H86, 2, LEN(H86)-1)</f>
-        <v>elCustId</v>
-      </c>
-      <c r="M86" s="80" t="str">
-        <f>L86</f>
-        <v>elCustId</v>
-      </c>
-      <c r="N86" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="O86" s="80" t="str">
-        <f>K86 &amp; " is required.;Max length of "&amp;K86&amp;" is 32."</f>
-        <v>Customer is required.;Max length of Customer is 32.</v>
-      </c>
-      <c r="P86" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q86" s="80"/>
-    </row>
-    <row r="87" spans="1:17" s="76" customFormat="1">
-      <c r="A87" s="79" t="s">
-        <v>528</v>
-      </c>
-      <c r="B87" s="80" t="s">
-        <v>531</v>
-      </c>
-      <c r="C87" s="80" t="s">
-        <v>533</v>
-      </c>
-      <c r="D87" s="80">
-        <v>0</v>
-      </c>
-      <c r="E87" s="80" t="s">
-        <v>22</v>
-      </c>
-      <c r="F87" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="80" t="s">
-        <v>530</v>
-      </c>
-      <c r="I87" s="80" t="s">
-        <v>530</v>
-      </c>
-      <c r="J87" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="K87" s="80" t="str">
-        <f>J87</f>
-        <v>Customer Type</v>
-      </c>
-      <c r="L87" s="80" t="str">
-        <f t="shared" si="37"/>
-        <v>elIdType</v>
-      </c>
-      <c r="M87" s="80" t="str">
-        <f t="shared" si="38"/>
-        <v>elIdType</v>
-      </c>
-      <c r="N87" s="82"/>
-      <c r="O87" s="80"/>
-      <c r="P87" s="80" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q87" s="80"/>
-    </row>
-    <row r="88" spans="1:17">
+      <c r="Q87" s="73"/>
+    </row>
+    <row r="88" spans="1:17" s="76" customFormat="1">
       <c r="A88" s="79" t="s">
         <v>528</v>
       </c>
@@ -15483,182 +15363,275 @@
       <c r="D88" s="80"/>
       <c r="E88" s="80"/>
       <c r="F88" s="80" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="G88" s="81"/>
       <c r="H88" s="80" t="s">
-        <v>252</v>
+        <v>532</v>
       </c>
       <c r="I88" s="80"/>
       <c r="J88" s="80" t="s">
+        <v>537</v>
+      </c>
+      <c r="K88" s="80" t="str">
+        <f>J88</f>
+        <v>Customer</v>
+      </c>
+      <c r="L88" s="80" t="str">
+        <f>"el" &amp; UPPER(MID(H88, 1, 1)) &amp; MID(H88, 2, LEN(H88)-1)</f>
+        <v>elCustId</v>
+      </c>
+      <c r="M88" s="80" t="str">
+        <f>L88</f>
+        <v>elCustId</v>
+      </c>
+      <c r="N88" s="82" t="s">
+        <v>256</v>
+      </c>
+      <c r="O88" s="80" t="str">
+        <f>K88 &amp; " is required.;Max length of "&amp;K88&amp;" is 32."</f>
+        <v>Customer is required.;Max length of Customer is 32.</v>
+      </c>
+      <c r="P88" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q88" s="80"/>
+    </row>
+    <row r="89" spans="1:17" s="76" customFormat="1">
+      <c r="A89" s="79" t="s">
+        <v>528</v>
+      </c>
+      <c r="B89" s="80" t="s">
+        <v>531</v>
+      </c>
+      <c r="C89" s="80" t="s">
+        <v>533</v>
+      </c>
+      <c r="D89" s="80">
+        <v>0</v>
+      </c>
+      <c r="E89" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="F89" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="I89" s="80" t="s">
+        <v>530</v>
+      </c>
+      <c r="J89" s="80" t="s">
+        <v>538</v>
+      </c>
+      <c r="K89" s="80" t="str">
+        <f>J89</f>
+        <v>Customer Type</v>
+      </c>
+      <c r="L89" s="80" t="str">
+        <f t="shared" si="34"/>
+        <v>elIdType</v>
+      </c>
+      <c r="M89" s="80" t="str">
+        <f t="shared" si="35"/>
+        <v>elIdType</v>
+      </c>
+      <c r="N89" s="82"/>
+      <c r="O89" s="80"/>
+      <c r="P89" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q89" s="80"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="79" t="s">
+        <v>528</v>
+      </c>
+      <c r="B90" s="80"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="80"/>
+      <c r="E90" s="80"/>
+      <c r="F90" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="G90" s="81"/>
+      <c r="H90" s="80" t="s">
+        <v>252</v>
+      </c>
+      <c r="I90" s="80"/>
+      <c r="J90" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="K88" s="80" t="str">
-        <f t="shared" ref="K88:K89" si="39">J88</f>
+      <c r="K90" s="80" t="str">
+        <f t="shared" ref="K90:K91" si="36">J90</f>
         <v>Note</v>
       </c>
-      <c r="L88" s="80" t="str">
-        <f t="shared" si="37"/>
+      <c r="L90" s="80" t="str">
+        <f t="shared" si="34"/>
         <v>elNote</v>
       </c>
-      <c r="M88" s="80" t="str">
-        <f t="shared" si="38"/>
+      <c r="M90" s="80" t="str">
+        <f t="shared" si="35"/>
         <v>elNote</v>
       </c>
-      <c r="N88" s="82" t="s">
+      <c r="N90" s="82" t="s">
         <v>258</v>
       </c>
-      <c r="O88" s="80" t="str">
-        <f>"Max length of " &amp; K88 &amp; " is 256."</f>
+      <c r="O90" s="80" t="str">
+        <f>"Max length of " &amp; K90 &amp; " is 256."</f>
         <v>Max length of Note is 256.</v>
       </c>
-      <c r="P88" s="80" t="s">
+      <c r="P90" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="Q88" s="80"/>
-    </row>
-    <row r="89" spans="1:17">
-      <c r="A89" s="61" t="s">
-        <v>529</v>
-      </c>
-      <c r="B89" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="62">
-        <v>0</v>
-      </c>
-      <c r="E89" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G89" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="K89" s="62" t="str">
-        <f t="shared" si="39"/>
-        <v xml:space="preserve">Country </v>
-      </c>
-      <c r="L89" s="62" t="str">
-        <f t="shared" si="37"/>
-        <v>elCountry</v>
-      </c>
-      <c r="M89" s="62" t="str">
-        <f t="shared" si="38"/>
-        <v>elCountry</v>
-      </c>
-      <c r="N89" s="62"/>
-      <c r="O89" s="62"/>
-      <c r="P89" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q89" s="62"/>
-    </row>
-    <row r="90" spans="1:17">
-      <c r="A90" s="61" t="s">
-        <v>529</v>
-      </c>
-      <c r="B90" s="62" t="s">
-        <v>518</v>
-      </c>
-      <c r="C90" s="62" t="s">
-        <v>520</v>
-      </c>
-      <c r="D90" s="62">
-        <v>0</v>
-      </c>
-      <c r="E90" s="62" t="s">
-        <v>22</v>
-      </c>
-      <c r="F90" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="G90" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="62" t="s">
-        <v>516</v>
-      </c>
-      <c r="I90" s="62" t="s">
-        <v>543</v>
-      </c>
-      <c r="J90" s="62" t="s">
-        <v>513</v>
-      </c>
-      <c r="K90" s="62" t="str">
-        <f>J90</f>
-        <v>Business Group</v>
-      </c>
-      <c r="L90" s="62" t="str">
-        <f>"el" &amp; UPPER(MID(H90, 1, 1)) &amp; MID(H90, 2, LEN(H90)-1)</f>
-        <v>elBusinessGroup</v>
-      </c>
-      <c r="M90" s="62" t="str">
-        <f>L90</f>
-        <v>elBusinessGroup</v>
-      </c>
-      <c r="N90" s="62"/>
-      <c r="O90" s="62"/>
-      <c r="P90" s="62" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q90" s="62"/>
+      <c r="Q90" s="80"/>
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="61" t="s">
         <v>529</v>
       </c>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
+      <c r="B91" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="62">
+        <v>0</v>
+      </c>
+      <c r="E91" s="62" t="s">
+        <v>22</v>
+      </c>
       <c r="F91" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="J91" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="K91" s="62" t="str">
+        <f t="shared" si="36"/>
+        <v xml:space="preserve">Country </v>
+      </c>
+      <c r="L91" s="62" t="str">
+        <f t="shared" si="34"/>
+        <v>elCountry</v>
+      </c>
+      <c r="M91" s="62" t="str">
+        <f t="shared" si="35"/>
+        <v>elCountry</v>
+      </c>
+      <c r="N91" s="62"/>
+      <c r="O91" s="62"/>
+      <c r="P91" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q91" s="62"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="B92" s="62" t="s">
+        <v>518</v>
+      </c>
+      <c r="C92" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="D92" s="62">
+        <v>0</v>
+      </c>
+      <c r="E92" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F92" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="I92" s="62" t="s">
+        <v>543</v>
+      </c>
+      <c r="J92" s="62" t="s">
+        <v>513</v>
+      </c>
+      <c r="K92" s="62" t="str">
+        <f>J92</f>
+        <v>Business Group</v>
+      </c>
+      <c r="L92" s="62" t="str">
+        <f>"el" &amp; UPPER(MID(H92, 1, 1)) &amp; MID(H92, 2, LEN(H92)-1)</f>
+        <v>elBusinessGroup</v>
+      </c>
+      <c r="M92" s="62" t="str">
+        <f>L92</f>
+        <v>elBusinessGroup</v>
+      </c>
+      <c r="N92" s="62"/>
+      <c r="O92" s="62"/>
+      <c r="P92" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q92" s="62"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="61" t="s">
+        <v>529</v>
+      </c>
+      <c r="B93" s="62"/>
+      <c r="C93" s="62"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62" t="s">
         <v>255</v>
       </c>
-      <c r="G91" s="63"/>
-      <c r="H91" s="62" t="s">
+      <c r="G93" s="63"/>
+      <c r="H93" s="62" t="s">
         <v>252</v>
       </c>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62" t="s">
+      <c r="I93" s="62"/>
+      <c r="J93" s="62" t="s">
         <v>253</v>
       </c>
-      <c r="K91" s="62" t="str">
-        <f t="shared" ref="K91" si="40">J91</f>
+      <c r="K93" s="62" t="str">
+        <f t="shared" ref="K93" si="37">J93</f>
         <v>Note</v>
       </c>
-      <c r="L91" s="62" t="str">
-        <f t="shared" ref="L91" si="41">"el" &amp; UPPER(MID(H91, 1, 1)) &amp; MID(H91, 2, LEN(H91)-1)</f>
+      <c r="L93" s="62" t="str">
+        <f t="shared" ref="L93" si="38">"el" &amp; UPPER(MID(H93, 1, 1)) &amp; MID(H93, 2, LEN(H93)-1)</f>
         <v>elNote</v>
       </c>
-      <c r="M91" s="62" t="str">
-        <f t="shared" ref="M91" si="42">L91</f>
+      <c r="M93" s="62" t="str">
+        <f t="shared" ref="M93" si="39">L93</f>
         <v>elNote</v>
       </c>
-      <c r="N91" s="64" t="s">
+      <c r="N93" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="O91" s="62" t="str">
-        <f>"Max length of " &amp; K91 &amp; " is 256."</f>
+      <c r="O93" s="62" t="str">
+        <f>"Max length of " &amp; K93 &amp; " is 256."</f>
         <v>Max length of Note is 256.</v>
       </c>
-      <c r="P91" s="62" t="s">
+      <c r="P93" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="Q91" s="62"/>
+      <c r="Q93" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
